--- a/fixtures/excel/unit/error-orphaned-references.xlsx
+++ b/fixtures/excel/unit/error-orphaned-references.xlsx
@@ -1,134 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011" filterPrivacy="true"/>
   <sheets>
-    <sheet sheetId="1" name="Parts" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Vehicle Applications" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Cross References" state="visible" r:id="rId6"/>
+    <sheet name="Parts" sheetId="1" r:id="rId1"/>
+    <sheet name="Vehicle Applications" sheetId="2" r:id="rId2"/>
+    <sheet name="Cross References" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>ACR_SKU</t>
-  </si>
-  <si>
-    <t>Part_Type</t>
-  </si>
-  <si>
-    <t>Position_Type</t>
-  </si>
-  <si>
-    <t>ABS_Type</t>
-  </si>
-  <si>
-    <t>Bolt_Pattern</t>
-  </si>
-  <si>
-    <t>Drive_Type</t>
-  </si>
-  <si>
-    <t>Specifications</t>
-  </si>
-  <si>
-    <t>real-part-id</t>
-  </si>
-  <si>
-    <t>ACR-VALID-001</t>
-  </si>
-  <si>
-    <t>MAZA</t>
-  </si>
-  <si>
-    <t>DELANTERA</t>
-  </si>
-  <si>
-    <t>C/ABS</t>
-  </si>
-  <si>
-    <t>4 BIRLOS</t>
-  </si>
-  <si>
-    <t>4x8</t>
-  </si>
-  <si>
-    <t>Valid part</t>
-  </si>
-  <si>
-    <t>_part_id</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Start_Year</t>
-  </si>
-  <si>
-    <t>End_Year</t>
-  </si>
-  <si>
-    <t>va-id-1</t>
-  </si>
-  <si>
-    <t>nonexistent-part-id</t>
-  </si>
-  <si>
-    <t>ACR-INVALID</t>
-  </si>
-  <si>
-    <t>FORD</t>
-  </si>
-  <si>
-    <t>F-150</t>
-  </si>
-  <si>
-    <t>_acr_part_id</t>
-  </si>
-  <si>
-    <t>Competitor_Brand</t>
-  </si>
-  <si>
-    <t>Competitor_SKU</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,23 +66,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -484,124 +398,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="1" width="36" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-  </cols>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>ACR_SKU</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Part_Type</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Position_Type</v>
+      </c>
+      <c r="E1" t="str">
+        <v>ABS_Type</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Bolt_Pattern</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Drive_Type</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Specifications</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>real-part-id</v>
+      </c>
+      <c r="B2" t="str">
+        <v>ACR-VALID-001</v>
+      </c>
+      <c r="C2" t="str">
+        <v>MAZA</v>
+      </c>
+      <c r="D2" t="str">
+        <v>DELANTERA</v>
+      </c>
+      <c r="E2" t="str">
+        <v>C/ABS</v>
+      </c>
+      <c r="F2" t="str">
+        <v>4 BIRLOS</v>
+      </c>
+      <c r="G2" t="str">
+        <v>4x8</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Valid part</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:H2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="36" hidden="1" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="12" customWidth="1"/>
-  </cols>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>_id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>_part_id</v>
+      </c>
+      <c r="C1" t="str">
+        <v>ACR_SKU</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Make</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Model</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Start_Year</v>
+      </c>
+      <c r="G1" t="str">
+        <v>End_Year</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>va-id-1</v>
+      </c>
+      <c r="B2" t="str">
+        <v>nonexistent-part-id</v>
+      </c>
+      <c r="C2" t="str">
+        <v>ACR-INVALID</v>
+      </c>
+      <c r="D2" t="str">
+        <v>FORD</v>
+      </c>
+      <c r="E2" t="str">
+        <v>F-150</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -611,40 +518,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <cols>
-    <col min="1" max="2" width="36" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
+  </ignoredErrors>
 </worksheet>
 </file>